--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H2">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I2">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J2">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>38.088771859082</v>
+        <v>510.3129793060916</v>
       </c>
       <c r="R2">
-        <v>152.355087436328</v>
+        <v>2041.251917224366</v>
       </c>
       <c r="S2">
-        <v>0.0006593231537420777</v>
+        <v>0.007588371229283423</v>
       </c>
       <c r="T2">
-        <v>0.0003673867909302743</v>
+        <v>0.004263546713179752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H3">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I3">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J3">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>3348.939260423296</v>
+        <v>9541.552962864285</v>
       </c>
       <c r="R3">
-        <v>20093.63556253977</v>
+        <v>57249.31777718571</v>
       </c>
       <c r="S3">
-        <v>0.05797071123852629</v>
+        <v>0.1418832146588498</v>
       </c>
       <c r="T3">
-        <v>0.04845349381935838</v>
+        <v>0.1195761966375042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H4">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I4">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J4">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>27.08062835596067</v>
+        <v>53.01997467980033</v>
       </c>
       <c r="R4">
-        <v>162.483770135764</v>
+        <v>318.119848078802</v>
       </c>
       <c r="S4">
-        <v>0.0004687703074025936</v>
+        <v>0.0007884088133220048</v>
       </c>
       <c r="T4">
-        <v>0.0003918109456855391</v>
+        <v>0.0006644544072335278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H5">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I5">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J5">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>1463.666337977295</v>
+        <v>2488.635769870676</v>
       </c>
       <c r="R5">
-        <v>5854.665351909179</v>
+        <v>9954.543079482704</v>
       </c>
       <c r="S5">
-        <v>0.02533631458508692</v>
+        <v>0.03700609790864243</v>
       </c>
       <c r="T5">
-        <v>0.0141178529171695</v>
+        <v>0.02079197529202845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H6">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I6">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J6">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>68.78231485381434</v>
+        <v>354.8293146711683</v>
       </c>
       <c r="R6">
-        <v>412.693889122886</v>
+        <v>2128.97588802701</v>
       </c>
       <c r="S6">
-        <v>0.001190633631319989</v>
+        <v>0.005276323887388351</v>
       </c>
       <c r="T6">
-        <v>0.0009951639036980342</v>
+        <v>0.004446775076238077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.84187300000001</v>
+        <v>190.440979</v>
       </c>
       <c r="H7">
-        <v>133.683746</v>
+        <v>380.881958</v>
       </c>
       <c r="I7">
-        <v>0.08595451855501719</v>
+        <v>0.1928530757306925</v>
       </c>
       <c r="J7">
-        <v>0.06460049962079971</v>
+        <v>0.1500047652103717</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>18.99262803921467</v>
+        <v>20.89162931760533</v>
       </c>
       <c r="R7">
-        <v>113.955768235288</v>
+        <v>125.349775905632</v>
       </c>
       <c r="S7">
-        <v>0.0003287656389393238</v>
+        <v>0.0003106592332065303</v>
       </c>
       <c r="T7">
-        <v>0.0002747912439579876</v>
+        <v>0.0002618170841877195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>491.547135</v>
       </c>
       <c r="I8">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J8">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>93.36675670853</v>
+        <v>439.0562091702326</v>
       </c>
       <c r="R8">
-        <v>560.20054025118</v>
+        <v>2634.337255021395</v>
       </c>
       <c r="S8">
-        <v>0.001616194523559021</v>
+        <v>0.006528780651897221</v>
       </c>
       <c r="T8">
-        <v>0.00135085924745571</v>
+        <v>0.005502319361113383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>491.547135</v>
       </c>
       <c r="I9">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J9">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>8209.232849943677</v>
+        <v>8209.232849943675</v>
       </c>
       <c r="R9">
-        <v>73883.09564949309</v>
+        <v>73883.09564949307</v>
       </c>
       <c r="S9">
-        <v>0.1421032243426706</v>
+        <v>0.1220715696036331</v>
       </c>
       <c r="T9">
-        <v>0.1781605975317734</v>
+        <v>0.1543190367430369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>491.547135</v>
       </c>
       <c r="I10">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J10">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>66.38256672017668</v>
+        <v>45.61661183861833</v>
       </c>
       <c r="R10">
-        <v>597.4431004815901</v>
+        <v>410.549506547565</v>
       </c>
       <c r="S10">
-        <v>0.001149093580789865</v>
+        <v>0.0006783205579529905</v>
       </c>
       <c r="T10">
-        <v>0.001440665403057806</v>
+        <v>0.0008575115028519254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>491.547135</v>
       </c>
       <c r="I11">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J11">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>3587.875696963593</v>
+        <v>2141.138931270407</v>
       </c>
       <c r="R11">
-        <v>21527.25418178156</v>
+        <v>12846.83358762244</v>
       </c>
       <c r="S11">
-        <v>0.06210674181117072</v>
+        <v>0.03183880818795602</v>
       </c>
       <c r="T11">
-        <v>0.05191050042677636</v>
+        <v>0.02683307956998944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>491.547135</v>
       </c>
       <c r="I12">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J12">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>168.6056373926984</v>
+        <v>305.2832675622583</v>
       </c>
       <c r="R12">
-        <v>1517.450736534285</v>
+        <v>2747.549408060325</v>
       </c>
       <c r="S12">
-        <v>0.002918592413421185</v>
+        <v>0.004539572494317353</v>
       </c>
       <c r="T12">
-        <v>0.00365915812770675</v>
+        <v>0.005738784688547084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>491.547135</v>
       </c>
       <c r="I13">
-        <v>0.2106997477266136</v>
+        <v>0.1659243323034306</v>
       </c>
       <c r="J13">
-        <v>0.2375321716985151</v>
+        <v>0.1935886198513659</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>46.55650457708667</v>
+        <v>17.97445870189334</v>
       </c>
       <c r="R13">
-        <v>419.00854119378</v>
+        <v>161.77012831704</v>
       </c>
       <c r="S13">
-        <v>0.0008059010550021991</v>
+        <v>0.0002672808076738688</v>
       </c>
       <c r="T13">
-        <v>0.001010390961745154</v>
+        <v>0.0003378879858271663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H14">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I14">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J14">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>72.14616438100465</v>
+        <v>365.0516528612544</v>
       </c>
       <c r="R14">
-        <v>432.8769862860279</v>
+        <v>2190.309917167526</v>
       </c>
       <c r="S14">
-        <v>0.001248862441825784</v>
+        <v>0.005428330401357744</v>
       </c>
       <c r="T14">
-        <v>0.001043833123889973</v>
+        <v>0.004574882977150034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H15">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I15">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J15">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>6343.421186653156</v>
+        <v>6825.53613410559</v>
       </c>
       <c r="R15">
-        <v>57090.7906798784</v>
+        <v>61429.82520695031</v>
       </c>
       <c r="S15">
-        <v>0.1098057054129252</v>
+        <v>0.1014959527286767</v>
       </c>
       <c r="T15">
-        <v>0.1376678831832126</v>
+        <v>0.1283079893972301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H16">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I16">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J16">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>51.29499770006822</v>
+        <v>37.92776232703578</v>
       </c>
       <c r="R16">
-        <v>461.6549793006141</v>
+        <v>341.349860943322</v>
       </c>
       <c r="S16">
-        <v>0.0008879251812036955</v>
+        <v>0.0005639871061577415</v>
       </c>
       <c r="T16">
-        <v>0.001113227948053367</v>
+        <v>0.000712974751126369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H17">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I17">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J17">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>2772.415781987834</v>
+        <v>1780.242004419044</v>
       </c>
       <c r="R17">
-        <v>16634.494691927</v>
+        <v>10681.45202651427</v>
       </c>
       <c r="S17">
-        <v>0.04799099124611635</v>
+        <v>0.02647225870261942</v>
       </c>
       <c r="T17">
-        <v>0.040112172993027</v>
+        <v>0.02231026425271273</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H18">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I18">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J18">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>130.2845944287401</v>
+        <v>253.8266378810678</v>
       </c>
       <c r="R18">
-        <v>1172.561349858661</v>
+        <v>2284.43974092961</v>
       </c>
       <c r="S18">
-        <v>0.002255248607137284</v>
+        <v>0.003774410673899636</v>
       </c>
       <c r="T18">
-        <v>0.002827496992336908</v>
+        <v>0.004771491194551604</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>126.6090903333333</v>
+        <v>136.2316793333333</v>
       </c>
       <c r="H19">
-        <v>379.827271</v>
+        <v>408.695038</v>
       </c>
       <c r="I19">
-        <v>0.1628114670618273</v>
+        <v>0.1379571692465976</v>
       </c>
       <c r="J19">
-        <v>0.1835453614249027</v>
+        <v>0.1609585382824407</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>35.97504455155422</v>
+        <v>14.94479686510578</v>
       </c>
       <c r="R19">
-        <v>323.775400963988</v>
+        <v>134.503171785952</v>
       </c>
       <c r="S19">
-        <v>0.000622734172619084</v>
+        <v>0.0002222296338863667</v>
       </c>
       <c r="T19">
-        <v>0.0007807471843828918</v>
+        <v>0.0002809357096697902</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H20">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I20">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J20">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>112.082541878714</v>
+        <v>624.0994228828976</v>
       </c>
       <c r="R20">
-        <v>448.330167514856</v>
+        <v>2496.39769153159</v>
       </c>
       <c r="S20">
-        <v>0.001940167965097609</v>
+        <v>0.009280379486441245</v>
       </c>
       <c r="T20">
-        <v>0.001081096695175019</v>
+        <v>0.005214206087307323</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H21">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I21">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J21">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>9854.810396470219</v>
+        <v>11669.06964746902</v>
       </c>
       <c r="R21">
-        <v>59128.86237882131</v>
+        <v>70014.41788481415</v>
       </c>
       <c r="S21">
-        <v>0.17058845305304</v>
+        <v>0.1735194595790313</v>
       </c>
       <c r="T21">
-        <v>0.1425824589532758</v>
+        <v>0.1462385601351438</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H22">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I22">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J22">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>79.68924997210469</v>
+        <v>64.84204192478833</v>
       </c>
       <c r="R22">
-        <v>478.1354998326281</v>
+        <v>389.05225154873</v>
       </c>
       <c r="S22">
-        <v>0.001379434543212262</v>
+        <v>0.000964203352340993</v>
       </c>
       <c r="T22">
-        <v>0.001152968830048184</v>
+        <v>0.0008126103565900278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H23">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I23">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J23">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>4307.081473504827</v>
+        <v>3043.536438861422</v>
       </c>
       <c r="R23">
-        <v>17228.32589401931</v>
+        <v>12174.14575544569</v>
       </c>
       <c r="S23">
-        <v>0.07455631678127099</v>
+        <v>0.04525748958871533</v>
       </c>
       <c r="T23">
-        <v>0.04154412871805085</v>
+        <v>0.02542804182248148</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H24">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I24">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J24">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>202.4033936730704</v>
+        <v>433.9469687981083</v>
       </c>
       <c r="R24">
-        <v>1214.420362038422</v>
+        <v>2603.681812788649</v>
       </c>
       <c r="S24">
-        <v>0.003503637353768024</v>
+        <v>0.006452806075087435</v>
       </c>
       <c r="T24">
-        <v>0.002928435191480804</v>
+        <v>0.005438289581707115</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>196.693321</v>
+        <v>232.904335</v>
       </c>
       <c r="H25">
-        <v>393.3866420000001</v>
+        <v>465.80867</v>
       </c>
       <c r="I25">
-        <v>0.2529354572326609</v>
+        <v>0.2358542661963609</v>
       </c>
       <c r="J25">
-        <v>0.1900977072960588</v>
+        <v>0.1834519034275326</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>55.88896474446267</v>
+        <v>25.54991608861333</v>
       </c>
       <c r="R25">
-        <v>335.333788466776</v>
+        <v>153.29949653168</v>
       </c>
       <c r="S25">
-        <v>0.0009674475362720985</v>
+        <v>0.0003799281147445522</v>
       </c>
       <c r="T25">
-        <v>0.0008086189080281723</v>
+        <v>0.0003201954443028768</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H26">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I26">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J26">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>48.61644494201467</v>
+        <v>392.4822931095862</v>
       </c>
       <c r="R26">
-        <v>291.698669652088</v>
+        <v>2354.893758657517</v>
       </c>
       <c r="S26">
-        <v>0.0008415589749516733</v>
+        <v>0.005836224947846268</v>
       </c>
       <c r="T26">
-        <v>0.0007033978317717651</v>
+        <v>0.00491864794339747</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H27">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I27">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J27">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>4274.580492405631</v>
+        <v>7338.419241822406</v>
       </c>
       <c r="R27">
-        <v>38471.22443165068</v>
+        <v>66045.77317640165</v>
       </c>
       <c r="S27">
-        <v>0.07399371924104801</v>
+        <v>0.1091225418541893</v>
       </c>
       <c r="T27">
-        <v>0.09276893817549277</v>
+        <v>0.1379492833635936</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H28">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I28">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J28">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>34.56566891507156</v>
+        <v>40.77772286183323</v>
       </c>
       <c r="R28">
-        <v>311.0910202356441</v>
+        <v>366.999505756499</v>
       </c>
       <c r="S28">
-        <v>0.000598337639360125</v>
+        <v>0.0006063661155183447</v>
       </c>
       <c r="T28">
-        <v>0.0007501602574273241</v>
+        <v>0.0007665489611073454</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H29">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I29">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J29">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>1868.221275209906</v>
+        <v>1914.012602621891</v>
       </c>
       <c r="R29">
-        <v>11209.32765125944</v>
+        <v>11484.07561573135</v>
       </c>
       <c r="S29">
-        <v>0.03233922972409352</v>
+        <v>0.02846143201368594</v>
       </c>
       <c r="T29">
-        <v>0.02703000591301717</v>
+        <v>0.02398669778688434</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H30">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I30">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J30">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>87.79363208261178</v>
+        <v>272.8996297017772</v>
       </c>
       <c r="R30">
-        <v>790.142688743506</v>
+        <v>2456.096667315995</v>
       </c>
       <c r="S30">
-        <v>0.001519722783326686</v>
+        <v>0.004058026706134273</v>
       </c>
       <c r="T30">
-        <v>0.001905338322987159</v>
+        <v>0.005130029657204652</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>85.31685533333334</v>
+        <v>146.4683736666667</v>
       </c>
       <c r="H31">
-        <v>255.950566</v>
+        <v>439.405121</v>
       </c>
       <c r="I31">
-        <v>0.1097122042765725</v>
+        <v>0.1483235200071568</v>
       </c>
       <c r="J31">
-        <v>0.1236839551296421</v>
+        <v>0.1730532534382739</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>24.24215878602756</v>
+        <v>16.06777588239822</v>
       </c>
       <c r="R31">
-        <v>218.179429074248</v>
+        <v>144.609982941584</v>
       </c>
       <c r="S31">
-        <v>0.0004196359137924992</v>
+        <v>0.0002389283697827149</v>
       </c>
       <c r="T31">
-        <v>0.000526114628945923</v>
+        <v>0.0003020457260865375</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H32">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I32">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J32">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>78.82636578210401</v>
+        <v>315.120546346606</v>
       </c>
       <c r="R32">
-        <v>472.958194692624</v>
+        <v>1890.723278079636</v>
       </c>
       <c r="S32">
-        <v>0.001364497870337372</v>
+        <v>0.004685853161924692</v>
       </c>
       <c r="T32">
-        <v>0.001140484353467461</v>
+        <v>0.003949138736756335</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H33">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I33">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J33">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>6930.775087756742</v>
+        <v>5891.951615146741</v>
       </c>
       <c r="R33">
-        <v>62376.97578981068</v>
+        <v>53027.56453632066</v>
       </c>
       <c r="S33">
-        <v>0.119972901873632</v>
+        <v>0.08761351941607537</v>
       </c>
       <c r="T33">
-        <v>0.1504149113033798</v>
+        <v>0.1107582540787918</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H34">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I34">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J34">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>56.04453523190135</v>
+        <v>32.74007141872133</v>
       </c>
       <c r="R34">
-        <v>504.4008170871121</v>
+        <v>294.660642768492</v>
       </c>
       <c r="S34">
-        <v>0.0009701404880109141</v>
+        <v>0.0004868459672264969</v>
       </c>
       <c r="T34">
-        <v>0.00121630462527014</v>
+        <v>0.0006154553508943256</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H35">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I35">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J35">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>3029.120985239655</v>
+        <v>1536.743714662546</v>
       </c>
       <c r="R35">
-        <v>18174.72591143793</v>
+        <v>9220.462287975275</v>
       </c>
       <c r="S35">
-        <v>0.05243460220884773</v>
+        <v>0.0228514309139936</v>
       </c>
       <c r="T35">
-        <v>0.04382626363842947</v>
+        <v>0.01925870655658708</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H36">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I36">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J36">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>142.3479845993987</v>
+        <v>219.1086882622733</v>
       </c>
       <c r="R36">
-        <v>1281.131861394588</v>
+        <v>1971.97819436046</v>
       </c>
       <c r="S36">
-        <v>0.00246406795373019</v>
+        <v>0.003258153591069397</v>
       </c>
       <c r="T36">
-        <v>0.003089302308418081</v>
+        <v>0.004118855236868615</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>138.332156</v>
+        <v>117.598156</v>
       </c>
       <c r="H37">
-        <v>414.996468</v>
+        <v>352.794468</v>
       </c>
       <c r="I37">
-        <v>0.1778866051473084</v>
+        <v>0.1190876365157616</v>
       </c>
       <c r="J37">
-        <v>0.2005403048300818</v>
+        <v>0.1389429197900154</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>39.30606769158934</v>
+        <v>12.90067451074133</v>
       </c>
       <c r="R37">
-        <v>353.754609224304</v>
+        <v>116.106070596672</v>
       </c>
       <c r="S37">
-        <v>0.0006803947527501842</v>
+        <v>0.0001918334654720607</v>
       </c>
       <c r="T37">
-        <v>0.0008530386011167821</v>
+        <v>0.000242509830117282</v>
       </c>
     </row>
   </sheetData>
